--- a/biology/Zoologie/Helicops_carinicaudus/Helicops_carinicaudus.xlsx
+++ b/biology/Zoologie/Helicops_carinicaudus/Helicops_carinicaudus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helicops carinicaudus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helicops carinicaudus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Colombie ;
 au Brésil dans les États d'Espírito Santo et du Rio Grande do Sul.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Helicops carinicaudus carinicaudus (Wied-Neuwied, 1825)
 Helicops carinicaudus triserialis Lindholm, 1902</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lampe &amp; Lindholm, 1902 : Catalog der Reptilien- und Amphibien-Sammlung (Schlangen, Frosch-, Schwanz- und Schleichlurche) des Naturhistorischen Museums zu Wiesbaden. Jahrbücher des Nassauischen Vereins für Naturkunde, vol. 55, p. 1-66 (texte intégral).
 Wied-Neuwied, 1825 : Beiträge zur Naturgeschichte von Brasilien, vol. 1, p. 1-612 (texte intégral).</t>
